--- a/data/trans_bre/P42C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P42C_R-Habitat-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
